--- a/list_v5.xlsx
+++ b/list_v5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\angel.araiza\Desktop\denver_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{057BF28F-82D5-4C87-9025-49D6A4BEB7E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FFC2682-DE72-4A78-94E8-B710AD391173}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23025" yWindow="-14790" windowWidth="18090" windowHeight="11385" xr2:uid="{DD7D3730-0F28-4A22-9F21-053070A1CC06}"/>
   </bookViews>
@@ -2334,7 +2334,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F33E0A74-EEDC-4CA6-AFD1-2D14E55162AE}">
   <dimension ref="A1:R196"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
